--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2801999.075728727</v>
+        <v>2799746.996017521</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>293.6407719183065</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329267</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.533183649868</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>62.88787292468428</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>83.32727861849563</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666726</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.79925355567593</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>117.4014735002805</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>19.52918235370657</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>170.7304930065913</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>108.5748211465625</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677315</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>62.33347093294459</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187894</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788180832</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893701</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763411</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>180.330238561827</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440906</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>51.3656974031032</v>
+        <v>136.5667167289883</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986426</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>105.3219429113318</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3244,10 +3244,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>953.6440892486864</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609172</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995487</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2641.774278995487</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2641.774278995487</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>541.953681701357</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>541.953681701357</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>541.953681701357</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757135</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757135</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="U4" t="n">
-        <v>541.953681701357</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V4" t="n">
-        <v>541.953681701357</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W4" t="n">
-        <v>541.953681701357</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X4" t="n">
-        <v>541.953681701357</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>541.953681701357</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794325</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2755.806928794325</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,16 +4668,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4689,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181855</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181855</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181855</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181855</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X7" t="n">
-        <v>901.1605589962596</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1572.164517693149</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>578.5476590249488</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1962.303849668961</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1572.164517693149</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181855</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,43 +5048,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382113</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103044</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>823.4946010684511</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123329</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5519,46 +5519,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
         <v>402.7245934908939</v>
@@ -5665,58 +5665,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,31 +5747,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098237</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819168</v>
+        <v>526.565882642405</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695811</v>
+        <v>526.565882642405</v>
       </c>
       <c r="E22" t="n">
-        <v>516.389687887188</v>
+        <v>378.6527890600119</v>
       </c>
       <c r="F22" t="n">
-        <v>369.4997403892776</v>
+        <v>231.7628415621015</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033213</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6309,16 +6309,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,58 +6455,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,16 +6534,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
         <v>589.1422692637306</v>
@@ -6555,13 +6555,13 @@
         <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6683,52 +6683,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459582</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>599.6019060180513</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>449.4852666057155</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4852666057155</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>449.4852666057155</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>282.2891673205955</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761979</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,19 +6923,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7403,10 +7403,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,13 +7418,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.22910392194085</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431578</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.73700564187121</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>105.8542358274172</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.6938862346281</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>114.1584408891656</v>
+        <v>28.95742156328052</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991729</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>34.97276993489206</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25132,10 +25132,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>760639.3159085391</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.3159085388</v>
       </c>
     </row>
     <row r="15">
@@ -26314,43 +26314,43 @@
         <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.460138034</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="H2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="O2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442549</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.0279355121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186724</v>
       </c>
       <c r="F4" t="n">
+        <v>14826.6960418673</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14826.6960418673</v>
+      </c>
+      <c r="H4" t="n">
         <v>14826.69604186738</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14826.69604186736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14826.69604186734</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
@@ -26442,19 +26442,19 @@
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26476,13 +26476,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852915.9702550047</v>
+        <v>-852915.9702550045</v>
       </c>
       <c r="C6" t="n">
         <v>475828.7754725877</v>
       </c>
       <c r="D6" t="n">
-        <v>475828.7754725882</v>
+        <v>475828.7754725881</v>
       </c>
       <c r="E6" t="n">
-        <v>224534.2570711257</v>
+        <v>224499.5191456894</v>
       </c>
       <c r="F6" t="n">
-        <v>549946.7188784805</v>
+        <v>549911.9809530453</v>
       </c>
       <c r="G6" t="n">
-        <v>549946.7188784804</v>
+        <v>549911.9809530447</v>
       </c>
       <c r="H6" t="n">
-        <v>549946.7188784804</v>
+        <v>549911.9809530454</v>
       </c>
       <c r="I6" t="n">
-        <v>549946.7188784805</v>
+        <v>549911.980953045</v>
       </c>
       <c r="J6" t="n">
-        <v>332415.5164812027</v>
+        <v>332380.7785557676</v>
       </c>
       <c r="K6" t="n">
-        <v>549946.7188784803</v>
+        <v>549911.9809530447</v>
       </c>
       <c r="L6" t="n">
-        <v>549946.7188784803</v>
+        <v>549911.9809530447</v>
       </c>
       <c r="M6" t="n">
-        <v>464891.6909429684</v>
+        <v>464856.9530175325</v>
       </c>
       <c r="N6" t="n">
-        <v>549946.7188784804</v>
+        <v>549911.9809530448</v>
       </c>
       <c r="O6" t="n">
-        <v>549946.7188784803</v>
+        <v>549911.9809530448</v>
       </c>
       <c r="P6" t="n">
-        <v>549946.7188784805</v>
+        <v>549911.9809530448</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973568</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.09306974517403</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.6521825393351</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>83.5460897218849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>136.2216706576736</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068133</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>362.4386851003777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>168.8103647053323</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>206.1804730353306</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>240.1912326468622</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>261.1562795319065</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351641</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>189.8041723908834</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.609174427322984e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-8.988773068867788e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110982</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159423</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>402.2342772868834</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,34 +32318,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642889</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321067</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663262</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723596</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33029,19 +33029,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33503,7 +33503,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>283.575538331224</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402481</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060466</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>263.6798975070092</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782673</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876622</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580294</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36677,19 +36677,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
